--- a/medicine/Enfance/Dan_Olweus/Dan_Olweus.xlsx
+++ b/medicine/Enfance/Dan_Olweus/Dan_Olweus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dan Olweus, né le 18 avril 1931 à Kalmar (Suède) et mort le 20 septembre 2020 à Bærum (Norvège)[1], est un psychologue suédo-norvégien consacré au domaine du harcèlement scolaire.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dan Olweus, né le 18 avril 1931 à Kalmar (Suède) et mort le 20 septembre 2020 à Bærum (Norvège), est un psychologue suédo-norvégien consacré au domaine du harcèlement scolaire.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dan Olweus est né en 1931 à Kalmar en Suède[2]. Il était professeur de psychologie à l'Université de Bergen en Norvège[3]. Il propose en 1981 en Norvège de faire voter une loi contre le "school-bullying", mais c'est en Suède qu'une disposition est ratifiée par le parlement en 1994[4]. Il met en œuvre un programme de prévention à Bergen afin de diminuer les phénomènes de harcèlement[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dan Olweus est né en 1931 à Kalmar en Suède. Il était professeur de psychologie à l'Université de Bergen en Norvège. Il propose en 1981 en Norvège de faire voter une loi contre le "school-bullying", mais c'est en Suède qu'une disposition est ratifiée par le parlement en 1994. Il met en œuvre un programme de prévention à Bergen afin de diminuer les phénomènes de harcèlement.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Prediction of aggression : on the basis of a projective test, 1969
 Violences entre les élèves, harcèlement et brutalités : les faits, les solutions, 1999
